--- a/lien-specialty-slice-coding/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/lien-specialty-slice-coding/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$83</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="522">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T15:20:10+00:00</t>
+    <t>2024-03-14T16:30:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1004,7 +1004,37 @@
     <t>./Specialty</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty:expertiseType</t>
+    <t>PractitionerRole.specialty.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding:expertiseType</t>
   </si>
   <si>
     <t>expertiseType</t>
@@ -1014,6 +1044,30 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J209-TypeSavoirFaire-ROR/FHIR/JDV-J209-TypeSavoirFaire-ROR</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:specialty</t>
@@ -1902,7 +1956,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN79"/>
+  <dimension ref="A1:AN83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6071,7 +6125,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>78</v>
@@ -6175,42 +6229,38 @@
         <v>316</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>228</v>
+        <v>103</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>318</v>
+        <v>104</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -6235,11 +6285,13 @@
         <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Y38" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z38" t="s" s="2">
-        <v>319</v>
+        <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>76</v>
@@ -6257,28 +6309,28 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>307</v>
+        <v>106</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>314</v>
+        <v>107</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>76</v>
@@ -6286,44 +6338,42 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>322</v>
+        <v>111</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>309</v>
+        <v>112</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>310</v>
+        <v>113</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6349,29 +6399,31 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Y39" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z39" t="s" s="2">
-        <v>323</v>
+        <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>307</v>
+        <v>117</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6383,16 +6435,16 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>314</v>
+        <v>101</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>76</v>
@@ -6400,26 +6452,24 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>76</v>
@@ -6428,18 +6478,20 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6463,29 +6515,29 @@
         <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Y40" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z40" t="s" s="2">
-        <v>327</v>
+        <v>76</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6500,13 +6552,13 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>76</v>
@@ -6514,20 +6566,20 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>87</v>
@@ -6542,18 +6594,20 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6581,7 +6635,7 @@
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>76</v>
@@ -6599,7 +6653,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6614,13 +6668,13 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>76</v>
@@ -6628,14 +6682,12 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6647,7 +6699,7 @@
         <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>76</v>
@@ -6656,18 +6708,20 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>228</v>
+        <v>103</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O42" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6691,35 +6745,37 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Y42" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AA42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>307</v>
-      </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>99</v>
@@ -6728,13 +6784,13 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>76</v>
@@ -6742,13 +6798,13 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>307</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>76</v>
@@ -6773,7 +6829,7 @@
         <v>228</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>309</v>
@@ -6809,7 +6865,7 @@
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>76</v>
@@ -6856,13 +6912,13 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>307</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>76</v>
@@ -6887,7 +6943,7 @@
         <v>228</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>309</v>
@@ -6923,7 +6979,7 @@
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
@@ -6970,13 +7026,13 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>307</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>76</v>
@@ -7001,7 +7057,7 @@
         <v>228</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>309</v>
@@ -7037,7 +7093,7 @@
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>76</v>
@@ -7084,13 +7140,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>307</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>76</v>
@@ -7115,7 +7171,7 @@
         <v>228</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>309</v>
@@ -7151,7 +7207,7 @@
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>76</v>
@@ -7198,13 +7254,13 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>307</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>76</v>
@@ -7214,7 +7270,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>88</v>
@@ -7229,7 +7285,7 @@
         <v>228</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>309</v>
@@ -7265,7 +7321,7 @@
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>76</v>
@@ -7312,12 +7368,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>76</v>
       </c>
@@ -7326,10 +7384,10 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>76</v>
@@ -7338,16 +7396,16 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>357</v>
+        <v>228</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>359</v>
+        <v>309</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7373,13 +7431,11 @@
         <v>76</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>76</v>
@@ -7397,7 +7453,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7409,35 +7465,37 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>292</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>362</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="C49" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="B49" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>87</v>
@@ -7449,19 +7507,19 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>366</v>
+        <v>309</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7487,13 +7545,11 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -7511,7 +7567,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>363</v>
+        <v>307</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7523,16 +7579,16 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>292</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>76</v>
@@ -7540,12 +7596,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="D50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7566,18 +7624,18 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>370</v>
+        <v>228</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7601,13 +7659,11 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>76</v>
+        <v>369</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7625,7 +7681,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>369</v>
+        <v>307</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7637,16 +7693,16 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>374</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>375</v>
+        <v>313</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>376</v>
+        <v>314</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>377</v>
+        <v>315</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>76</v>
@@ -7654,12 +7710,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7668,27 +7726,29 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>103</v>
+        <v>228</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>104</v>
+        <v>372</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7713,13 +7773,11 @@
         <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>76</v>
+        <v>373</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>76</v>
@@ -7737,28 +7795,28 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>106</v>
+        <v>307</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>107</v>
+        <v>314</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>76</v>
@@ -7766,10 +7824,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7777,7 +7835,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>78</v>
@@ -7789,18 +7847,20 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>110</v>
+        <v>375</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>197</v>
+        <v>376</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7837,19 +7897,19 @@
         <v>76</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>117</v>
+        <v>374</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7861,31 +7921,29 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>118</v>
+        <v>292</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>76</v>
+        <v>378</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>379</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>76</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C53" t="s" s="2">
         <v>381</v>
       </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7914,7 +7972,9 @@
       <c r="M53" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="N53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
@@ -7963,7 +8023,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>117</v>
+        <v>381</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7975,13 +8035,13 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>118</v>
+        <v>292</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>76</v>
+        <v>385</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>76</v>
+        <v>386</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7992,14 +8052,12 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>76</v>
       </c>
@@ -8017,19 +8075,21 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
       </c>
@@ -8077,7 +8137,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>117</v>
+        <v>387</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8089,16 +8149,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>118</v>
+        <v>392</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>76</v>
+        <v>393</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>76</v>
+        <v>394</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>76</v>
+        <v>395</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>76</v>
@@ -8106,26 +8166,24 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>76</v>
@@ -8134,13 +8192,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>392</v>
+        <v>103</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>393</v>
+        <v>104</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>394</v>
+        <v>105</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8191,25 +8249,25 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -8220,10 +8278,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8231,10 +8289,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -8243,20 +8301,18 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>396</v>
+        <v>197</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -8281,52 +8337,52 @@
         <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>401</v>
+        <v>117</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>402</v>
+        <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>403</v>
+        <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>404</v>
+        <v>76</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>405</v>
+        <v>76</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>76</v>
@@ -8334,12 +8390,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>76</v>
       </c>
@@ -8357,23 +8415,19 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>103</v>
+        <v>400</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>76</v>
       </c>
@@ -8421,28 +8475,28 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>412</v>
+        <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>413</v>
+        <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>414</v>
+        <v>76</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>76</v>
@@ -8450,12 +8504,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="D58" t="s" s="2">
         <v>76</v>
       </c>
@@ -8467,29 +8523,25 @@
         <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>172</v>
+        <v>405</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>76</v>
       </c>
@@ -8513,13 +8565,13 @@
         <v>76</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>420</v>
+        <v>76</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>421</v>
+        <v>76</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>76</v>
@@ -8537,28 +8589,28 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>422</v>
+        <v>117</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>423</v>
+        <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>424</v>
+        <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>425</v>
+        <v>76</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>76</v>
@@ -8566,43 +8618,43 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>76</v>
@@ -8651,25 +8703,25 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>431</v>
+        <v>117</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8680,10 +8732,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8706,16 +8758,16 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>277</v>
+        <v>172</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>280</v>
+        <v>416</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8741,13 +8793,13 @@
         <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>76</v>
+        <v>417</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>76</v>
+        <v>418</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>76</v>
@@ -8765,7 +8817,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8774,19 +8826,19 @@
         <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>420</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>282</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>101</v>
+        <v>421</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>76</v>
@@ -8794,10 +8846,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8805,7 +8857,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>87</v>
@@ -8817,21 +8869,23 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>439</v>
+        <v>103</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8879,13 +8933,13 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>99</v>
@@ -8894,13 +8948,13 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>76</v>
+        <v>432</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>76</v>
@@ -8908,10 +8962,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8928,22 +8982,26 @@
         <v>76</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>104</v>
+        <v>434</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>76</v>
       </c>
@@ -8967,13 +9025,13 @@
         <v>76</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>76</v>
+        <v>438</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>76</v>
+        <v>439</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>76</v>
@@ -8991,7 +9049,7 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>106</v>
+        <v>440</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9000,19 +9058,19 @@
         <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>76</v>
+        <v>441</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>107</v>
+        <v>442</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>76</v>
@@ -9020,21 +9078,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
@@ -9043,19 +9101,19 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>110</v>
+        <v>445</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>111</v>
+        <v>446</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>112</v>
+        <v>447</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>113</v>
+        <v>448</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9093,37 +9151,37 @@
         <v>76</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>117</v>
+        <v>449</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -9134,14 +9192,12 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
         <v>76</v>
       </c>
@@ -9153,24 +9209,26 @@
         <v>87</v>
       </c>
       <c r="H64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J64" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K64" t="s" s="2">
-        <v>448</v>
+        <v>277</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -9219,28 +9277,28 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>117</v>
+        <v>453</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>118</v>
+        <v>282</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>76</v>
+        <v>454</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>76</v>
+        <v>455</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>76</v>
@@ -9248,14 +9306,12 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
         <v>76</v>
       </c>
@@ -9276,15 +9332,17 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -9333,7 +9391,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>117</v>
+        <v>456</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9345,13 +9403,13 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>76</v>
+        <v>461</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
@@ -9362,14 +9420,12 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9381,7 +9437,7 @@
         <v>87</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>76</v>
@@ -9390,13 +9446,13 @@
         <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>458</v>
+        <v>103</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>459</v>
+        <v>104</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>460</v>
+        <v>105</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9447,25 +9503,25 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>76</v>
@@ -9476,14 +9532,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>462</v>
+        <v>109</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9496,26 +9552,24 @@
         <v>76</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>110</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>463</v>
+        <v>111</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>464</v>
+        <v>112</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="O67" t="s" s="2">
-        <v>255</v>
-      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>76</v>
       </c>
@@ -9551,19 +9605,19 @@
         <v>76</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>465</v>
+        <v>117</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9592,12 +9646,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="D68" t="s" s="2">
         <v>76</v>
       </c>
@@ -9606,10 +9662,10 @@
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>76</v>
@@ -9618,7 +9674,7 @@
         <v>76</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>172</v>
+        <v>466</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>467</v>
@@ -9626,9 +9682,7 @@
       <c r="M68" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="N68" t="s" s="2">
-        <v>398</v>
-      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>76</v>
@@ -9653,13 +9707,13 @@
         <v>76</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>469</v>
+        <v>76</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>470</v>
+        <v>76</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>76</v>
@@ -9677,7 +9731,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>466</v>
+        <v>117</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9689,13 +9743,13 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>76</v>
@@ -9706,12 +9760,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="D69" t="s" s="2">
         <v>76</v>
       </c>
@@ -9723,7 +9779,7 @@
         <v>87</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>76</v>
@@ -9732,7 +9788,7 @@
         <v>76</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>267</v>
+        <v>471</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>472</v>
@@ -9789,25 +9845,25 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>471</v>
+        <v>117</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>76</v>
@@ -9821,9 +9877,11 @@
         <v>474</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>76</v>
       </c>
@@ -9844,17 +9902,15 @@
         <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N70" t="s" s="2">
         <v>478</v>
       </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>76</v>
@@ -9903,25 +9959,25 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>474</v>
+        <v>117</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>76</v>
@@ -9939,37 +9995,39 @@
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>76</v>
+        <v>480</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I71" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I71" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J71" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>475</v>
+        <v>110</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>76</v>
       </c>
@@ -10017,25 +10075,25 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>443</v>
+        <v>101</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -10046,10 +10104,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10072,15 +10130,17 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>439</v>
+        <v>172</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>76</v>
@@ -10105,13 +10165,13 @@
         <v>76</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>76</v>
+        <v>487</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>76</v>
+        <v>488</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>76</v>
@@ -10129,7 +10189,7 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10147,7 +10207,7 @@
         <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -10158,10 +10218,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10184,13 +10244,13 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>104</v>
+        <v>490</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>105</v>
+        <v>491</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10241,7 +10301,7 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>106</v>
+        <v>489</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -10250,16 +10310,16 @@
         <v>87</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>107</v>
+        <v>461</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -10270,24 +10330,24 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>76</v>
@@ -10296,16 +10356,16 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>110</v>
+        <v>493</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>111</v>
+        <v>494</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>112</v>
+        <v>495</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>113</v>
+        <v>496</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10343,37 +10403,37 @@
         <v>76</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>117</v>
+        <v>492</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>101</v>
+        <v>461</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -10384,46 +10444,44 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>462</v>
+        <v>76</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>110</v>
+        <v>493</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>463</v>
+        <v>498</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>464</v>
+        <v>499</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>76</v>
       </c>
@@ -10471,25 +10529,25 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>101</v>
+        <v>461</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -10500,10 +10558,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10511,10 +10569,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>76</v>
@@ -10526,17 +10584,15 @@
         <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>103</v>
+        <v>457</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>76</v>
@@ -10585,13 +10641,13 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>99</v>
@@ -10603,7 +10659,7 @@
         <v>76</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>107</v>
+        <v>461</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10614,10 +10670,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10640,17 +10696,15 @@
         <v>76</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>277</v>
+        <v>103</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>492</v>
+        <v>104</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>76</v>
@@ -10699,7 +10753,7 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>491</v>
+        <v>106</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -10708,16 +10762,16 @@
         <v>87</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>494</v>
+        <v>76</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>443</v>
+        <v>107</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
@@ -10728,21 +10782,21 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
@@ -10754,16 +10808,16 @@
         <v>76</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>496</v>
+        <v>111</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>497</v>
+        <v>112</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>398</v>
+        <v>113</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10801,37 +10855,37 @@
         <v>76</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>495</v>
+        <v>117</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>443</v>
+        <v>101</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>
@@ -10842,14 +10896,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>76</v>
+        <v>480</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -10862,25 +10916,25 @@
         <v>76</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>499</v>
+        <v>110</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>291</v>
+        <v>113</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>502</v>
+        <v>255</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>76</v>
@@ -10929,7 +10983,7 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -10941,23 +10995,481 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AK79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN79" t="s" s="2">
+      <c r="AK83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN79">
+  <autoFilter ref="A1:AN83">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10967,7 +11479,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI78">
+  <conditionalFormatting sqref="A2:AI82">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/lien-specialty-slice-coding/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/lien-specialty-slice-coding/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-14T16:30:20+00:00</t>
+    <t>2024-03-15T15:49:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>87</v>

--- a/lien-specialty-slice-coding/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/lien-specialty-slice-coding/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$115</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4192" uniqueCount="562">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T15:49:47+00:00</t>
+    <t>2024-03-19T08:25:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1082,6 +1082,24 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J210-SpecialiteOrdinale-ROR/FHIR/JDV-J210-SpecialiteOrdinale-ROR</t>
   </si>
   <si>
+    <t>PractitionerRole.specialty:specialty.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:specialty.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:specialty.coding:expertiseType</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J209-TypeSavoirFaire-ROR/FHIR/JDV-J209-TypeSavoirFaire-ROR"/&gt;
+  &lt;code value="S"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:specialty.text</t>
+  </si>
+  <si>
     <t>PractitionerRole.specialty:competence</t>
   </si>
   <si>
@@ -1094,6 +1112,24 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J232-Competence-ROR/FHIR/JDV-J232-Competence-ROR</t>
   </si>
   <si>
+    <t>PractitionerRole.specialty:competence.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:competence.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:competence.coding:expertiseType</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J209-TypeSavoirFaire-ROR/FHIR/JDV-J209-TypeSavoirFaire-ROR"/&gt;
+  &lt;code value="C"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:competence.text</t>
+  </si>
+  <si>
     <t>PractitionerRole.specialty:exclusiveCompetence</t>
   </si>
   <si>
@@ -1106,6 +1142,24 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J211-CompetenceExclusive-ROR/FHIR/JDV-J211-CompetenceExclusive-ROR</t>
   </si>
   <si>
+    <t>PractitionerRole.specialty:exclusiveCompetence.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:exclusiveCompetence.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:exclusiveCompetence.coding:expertiseType</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J209-TypeSavoirFaire-ROR/FHIR/JDV-J209-TypeSavoirFaire-ROR"/&gt;
+  &lt;code value="CEX"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:exclusiveCompetence.text</t>
+  </si>
+  <si>
     <t>PractitionerRole.specialty:specificOrientation</t>
   </si>
   <si>
@@ -1118,6 +1172,24 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J212-OrientationParticuliere-ROR/FHIR/JDV-J212-OrientationParticuliere-ROR</t>
   </si>
   <si>
+    <t>PractitionerRole.specialty:specificOrientation.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:specificOrientation.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:specificOrientation.coding:expertiseType</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J209-TypeSavoirFaire-ROR/FHIR/JDV-J209-TypeSavoirFaire-ROR"/&gt;
+  &lt;code value="OP"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:specificOrientation.text</t>
+  </si>
+  <si>
     <t>PractitionerRole.specialty:expertiseCapacity</t>
   </si>
   <si>
@@ -1130,6 +1202,24 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J213-CapaciteSavoirFaire-ROR/FHIR/JDV-J213-CapaciteSavoirFaire-ROR</t>
   </si>
   <si>
+    <t>PractitionerRole.specialty:expertiseCapacity.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:expertiseCapacity.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:expertiseCapacity.coding:expertiseType</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J209-TypeSavoirFaire-ROR/FHIR/JDV-J209-TypeSavoirFaire-ROR"/&gt;
+  &lt;code value="CAPA"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:expertiseCapacity.text</t>
+  </si>
+  <si>
     <t>PractitionerRole.specialty:qualificationPAC</t>
   </si>
   <si>
@@ -1142,6 +1232,24 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J214-QualificationPAC-ROR/FHIR/JDV-J214-QualificationPAC-ROR</t>
   </si>
   <si>
+    <t>PractitionerRole.specialty:qualificationPAC.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:qualificationPAC.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:qualificationPAC.coding:expertiseType</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J209-TypeSavoirFaire-ROR/FHIR/JDV-J209-TypeSavoirFaire-ROR"/&gt;
+  &lt;code value="PAC"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:qualificationPAC.text</t>
+  </si>
+  <si>
     <t>PractitionerRole.specialty:nonQualifyingDESC</t>
   </si>
   <si>
@@ -1154,6 +1262,24 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J215-DESCnonQualifiant-ROR/FHIR/JDV-J215-DESCnonQualifiant-ROR</t>
   </si>
   <si>
+    <t>PractitionerRole.specialty:nonQualifyingDESC.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:nonQualifyingDESC.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:nonQualifyingDESC.coding:expertiseType</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J209-TypeSavoirFaire-ROR/FHIR/JDV-J209-TypeSavoirFaire-ROR"/&gt;
+  &lt;code value="DNQ"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:nonQualifyingDESC.text</t>
+  </si>
+  <si>
     <t>PractitionerRole.specialty:supplementaryExerciseRight</t>
   </si>
   <si>
@@ -1164,6 +1290,24 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J216-DroitExerciceCompl-ROR/FHIR/JDV-J216-DroitExerciceCompl-ROR</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:supplementaryExerciseRight.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:supplementaryExerciseRight.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:supplementaryExerciseRight.coding:expertiseType</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J209-TypeSavoirFaire-ROR/FHIR/JDV-J209-TypeSavoirFaire-ROR"/&gt;
+  &lt;code value="DEC"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:supplementaryExerciseRight.text</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:specificCompetence</t>
@@ -1956,7 +2100,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN83"/>
+  <dimension ref="A1:AN115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6915,11 +7059,9 @@
         <v>342</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6931,26 +7073,24 @@
         <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>228</v>
+        <v>103</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>104</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6975,11 +7115,13 @@
         <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z44" t="s" s="2">
-        <v>345</v>
+        <v>76</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
@@ -6997,28 +7139,28 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>307</v>
+        <v>106</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>314</v>
+        <v>107</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>76</v>
@@ -7026,44 +7168,42 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>348</v>
+        <v>111</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>309</v>
+        <v>112</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>310</v>
+        <v>113</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7089,29 +7229,31 @@
         <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Y45" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z45" t="s" s="2">
-        <v>349</v>
+        <v>76</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>307</v>
+        <v>117</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7123,16 +7265,16 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>314</v>
+        <v>101</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>76</v>
@@ -7140,13 +7282,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>76</v>
@@ -7156,10 +7298,10 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>76</v>
@@ -7168,18 +7310,20 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>76</v>
       </c>
@@ -7188,7 +7332,7 @@
         <v>76</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>76</v>
+        <v>345</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>76</v>
@@ -7203,11 +7347,13 @@
         <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Y46" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z46" t="s" s="2">
-        <v>353</v>
+        <v>76</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>76</v>
@@ -7225,7 +7371,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7240,13 +7386,13 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>76</v>
@@ -7254,14 +7400,12 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>76</v>
       </c>
@@ -7273,7 +7417,7 @@
         <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>76</v>
@@ -7282,18 +7426,20 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>228</v>
+        <v>103</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
       </c>
@@ -7317,11 +7463,13 @@
         <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Y47" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z47" t="s" s="2">
-        <v>357</v>
+        <v>76</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>76</v>
@@ -7339,13 +7487,13 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>99</v>
@@ -7354,13 +7502,13 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>76</v>
@@ -7368,13 +7516,13 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>307</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>76</v>
@@ -7399,7 +7547,7 @@
         <v>228</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>309</v>
@@ -7435,7 +7583,7 @@
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>76</v>
@@ -7482,14 +7630,12 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>76</v>
       </c>
@@ -7501,26 +7647,24 @@
         <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>228</v>
+        <v>103</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>364</v>
+        <v>104</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7545,11 +7689,13 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Y49" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z49" t="s" s="2">
-        <v>365</v>
+        <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -7567,28 +7713,28 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>307</v>
+        <v>106</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>314</v>
+        <v>107</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>76</v>
@@ -7596,44 +7742,42 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>368</v>
+        <v>111</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>309</v>
+        <v>112</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>310</v>
+        <v>113</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7659,29 +7803,31 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Y50" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z50" t="s" s="2">
-        <v>369</v>
+        <v>76</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>307</v>
+        <v>117</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7693,16 +7839,16 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>314</v>
+        <v>101</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>76</v>
@@ -7710,13 +7856,13 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>76</v>
@@ -7729,7 +7875,7 @@
         <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>76</v>
@@ -7738,18 +7884,20 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>372</v>
+        <v>319</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7758,7 +7906,7 @@
         <v>76</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>76</v>
+        <v>354</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>76</v>
@@ -7773,11 +7921,13 @@
         <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Y51" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z51" t="s" s="2">
-        <v>373</v>
+        <v>76</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>76</v>
@@ -7795,7 +7945,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7810,13 +7960,13 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>76</v>
@@ -7824,10 +7974,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7838,7 +7988,7 @@
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
@@ -7850,18 +8000,20 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>375</v>
+        <v>103</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>376</v>
+        <v>331</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7909,47 +8061,49 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>292</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>76</v>
+        <v>336</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>378</v>
+        <v>337</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>379</v>
+        <v>76</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>380</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>87</v>
@@ -7961,19 +8115,19 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>382</v>
+        <v>228</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>384</v>
+        <v>309</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7999,13 +8153,11 @@
         <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>76</v>
+        <v>359</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>76</v>
@@ -8023,7 +8175,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>381</v>
+        <v>307</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8035,16 +8187,16 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>292</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>385</v>
+        <v>313</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>386</v>
+        <v>314</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>76</v>
@@ -8052,10 +8204,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8069,27 +8221,25 @@
         <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>388</v>
+        <v>103</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>389</v>
+        <v>104</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>390</v>
+        <v>105</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>391</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
       </c>
@@ -8137,28 +8287,28 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>387</v>
+        <v>106</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>392</v>
+        <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>393</v>
+        <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>394</v>
+        <v>107</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>395</v>
+        <v>76</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>76</v>
@@ -8166,21 +8316,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>396</v>
+        <v>317</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -8192,15 +8342,17 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -8237,37 +8389,37 @@
         <v>76</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -8278,18 +8430,20 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>78</v>
@@ -8301,19 +8455,23 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>197</v>
+        <v>319</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>76</v>
       </c>
@@ -8322,7 +8480,7 @@
         <v>76</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>76</v>
+        <v>363</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>76</v>
@@ -8349,19 +8507,19 @@
         <v>76</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>117</v>
+        <v>323</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8373,13 +8531,13 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -8390,44 +8548,46 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J57" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K57" t="s" s="2">
-        <v>400</v>
+        <v>103</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>401</v>
+        <v>331</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>76</v>
       </c>
@@ -8475,25 +8635,25 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>117</v>
+        <v>335</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>76</v>
+        <v>336</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>76</v>
+        <v>337</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8504,13 +8664,13 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>403</v>
+        <v>365</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>397</v>
+        <v>307</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>404</v>
+        <v>366</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>76</v>
@@ -8529,18 +8689,20 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>405</v>
+        <v>228</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -8565,13 +8727,11 @@
         <v>76</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>76</v>
+        <v>368</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>76</v>
@@ -8589,7 +8749,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>117</v>
+        <v>307</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8601,16 +8761,16 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>76</v>
@@ -8618,26 +8778,24 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>76</v>
@@ -8646,13 +8804,13 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>410</v>
+        <v>103</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>411</v>
+        <v>104</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>412</v>
+        <v>105</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8703,25 +8861,25 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8732,21 +8890,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>413</v>
+        <v>370</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>413</v>
+        <v>317</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -8755,19 +8913,19 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>414</v>
+        <v>111</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>415</v>
+        <v>112</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>416</v>
+        <v>113</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8793,52 +8951,52 @@
         <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>417</v>
+        <v>76</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>418</v>
+        <v>76</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>419</v>
+        <v>117</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>420</v>
+        <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>421</v>
+        <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>422</v>
+        <v>101</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>423</v>
+        <v>76</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>76</v>
@@ -8846,24 +9004,26 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>424</v>
+        <v>371</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="D61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>76</v>
@@ -8872,19 +9032,19 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>425</v>
+        <v>319</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>426</v>
+        <v>320</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>427</v>
+        <v>321</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>428</v>
+        <v>322</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>76</v>
@@ -8894,7 +9054,7 @@
         <v>76</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>76</v>
+        <v>372</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>76</v>
@@ -8933,13 +9093,13 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>429</v>
+        <v>323</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>99</v>
@@ -8948,13 +9108,13 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>430</v>
+        <v>324</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>431</v>
+        <v>325</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>432</v>
+        <v>76</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>76</v>
@@ -8962,10 +9122,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>433</v>
+        <v>373</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>433</v>
+        <v>330</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8982,25 +9142,25 @@
         <v>76</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>434</v>
+        <v>331</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>435</v>
+        <v>332</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>436</v>
+        <v>333</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>437</v>
+        <v>334</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>76</v>
@@ -9025,13 +9185,13 @@
         <v>76</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>438</v>
+        <v>76</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>439</v>
+        <v>76</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>76</v>
@@ -9049,7 +9209,7 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>440</v>
+        <v>335</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9064,13 +9224,13 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>441</v>
+        <v>336</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>442</v>
+        <v>337</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>76</v>
@@ -9078,12 +9238,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>444</v>
+        <v>374</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>76</v>
       </c>
@@ -9095,7 +9257,7 @@
         <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>76</v>
@@ -9104,16 +9266,16 @@
         <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>445</v>
+        <v>228</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>446</v>
+        <v>376</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>447</v>
+        <v>309</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>448</v>
+        <v>310</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9139,13 +9301,11 @@
         <v>76</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>76</v>
+        <v>377</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>76</v>
@@ -9163,13 +9323,13 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>449</v>
+        <v>307</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>99</v>
@@ -9178,13 +9338,13 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>107</v>
+        <v>313</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>107</v>
+        <v>314</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>76</v>
@@ -9192,10 +9352,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>450</v>
+        <v>316</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9215,20 +9375,18 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>277</v>
+        <v>103</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>451</v>
+        <v>104</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -9277,7 +9435,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>453</v>
+        <v>106</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9286,19 +9444,19 @@
         <v>87</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>454</v>
+        <v>107</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>455</v>
+        <v>76</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>76</v>
@@ -9306,24 +9464,24 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>456</v>
+        <v>379</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>456</v>
+        <v>317</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>76</v>
@@ -9332,16 +9490,16 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>457</v>
+        <v>110</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>458</v>
+        <v>111</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>459</v>
+        <v>112</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>460</v>
+        <v>113</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9379,19 +9537,19 @@
         <v>76</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>456</v>
+        <v>117</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9403,13 +9561,13 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>461</v>
+        <v>101</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
@@ -9420,12 +9578,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>462</v>
+        <v>380</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="D66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9434,7 +9594,7 @@
         <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
@@ -9443,19 +9603,23 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>104</v>
+        <v>319</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9464,7 +9628,7 @@
         <v>76</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>76</v>
+        <v>381</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>76</v>
@@ -9503,25 +9667,25 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>106</v>
+        <v>323</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>107</v>
+        <v>325</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>76</v>
@@ -9532,21 +9696,21 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>463</v>
+        <v>382</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>463</v>
+        <v>330</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>76</v>
@@ -9555,21 +9719,23 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>111</v>
+        <v>331</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>112</v>
+        <v>332</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>76</v>
       </c>
@@ -9605,37 +9771,37 @@
         <v>76</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>117</v>
+        <v>335</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>76</v>
+        <v>336</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>101</v>
+        <v>337</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
@@ -9646,13 +9812,13 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>464</v>
+        <v>383</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>463</v>
+        <v>307</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>465</v>
+        <v>384</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>76</v>
@@ -9671,18 +9837,20 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>466</v>
+        <v>228</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>467</v>
+        <v>385</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>76</v>
@@ -9707,13 +9875,11 @@
         <v>76</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>76</v>
+        <v>386</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>76</v>
@@ -9731,7 +9897,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>117</v>
+        <v>307</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9743,16 +9909,16 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>76</v>
@@ -9760,14 +9926,12 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>469</v>
+        <v>387</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
         <v>76</v>
       </c>
@@ -9779,7 +9943,7 @@
         <v>87</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>76</v>
@@ -9788,13 +9952,13 @@
         <v>76</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>471</v>
+        <v>103</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>472</v>
+        <v>104</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>473</v>
+        <v>105</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9845,25 +10009,25 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>76</v>
@@ -9874,26 +10038,24 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>474</v>
+        <v>388</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>76</v>
@@ -9902,15 +10064,17 @@
         <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>476</v>
+        <v>110</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>477</v>
+        <v>111</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>76</v>
@@ -9947,16 +10111,16 @@
         <v>76</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>117</v>
@@ -9977,7 +10141,7 @@
         <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>76</v>
@@ -9988,14 +10152,16 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>479</v>
+        <v>389</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="D71" t="s" s="2">
-        <v>480</v>
+        <v>76</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10008,25 +10174,25 @@
         <v>76</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>481</v>
+        <v>319</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>482</v>
+        <v>320</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>113</v>
+        <v>321</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>76</v>
@@ -10036,7 +10202,7 @@
         <v>76</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>76</v>
+        <v>390</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>76</v>
@@ -10075,7 +10241,7 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>483</v>
+        <v>323</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10087,13 +10253,13 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>101</v>
+        <v>325</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -10104,10 +10270,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>484</v>
+        <v>391</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>484</v>
+        <v>330</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10118,7 +10284,7 @@
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
@@ -10127,21 +10293,23 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>485</v>
+        <v>331</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>486</v>
+        <v>332</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>76</v>
       </c>
@@ -10165,13 +10333,13 @@
         <v>76</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>487</v>
+        <v>76</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>488</v>
+        <v>76</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>76</v>
@@ -10189,13 +10357,13 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>484</v>
+        <v>335</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>99</v>
@@ -10204,10 +10372,10 @@
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>76</v>
+        <v>336</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>461</v>
+        <v>337</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -10218,12 +10386,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>489</v>
+        <v>392</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>76</v>
       </c>
@@ -10235,24 +10405,26 @@
         <v>87</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>490</v>
+        <v>394</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>76</v>
@@ -10277,13 +10449,11 @@
         <v>76</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>76</v>
+        <v>395</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>76</v>
@@ -10301,13 +10471,13 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>489</v>
+        <v>307</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>99</v>
@@ -10316,13 +10486,13 @@
         <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>461</v>
+        <v>314</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>76</v>
@@ -10330,10 +10500,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>492</v>
+        <v>396</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>492</v>
+        <v>316</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10347,7 +10517,7 @@
         <v>87</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>76</v>
@@ -10356,17 +10526,15 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>493</v>
+        <v>103</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>494</v>
+        <v>104</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>76</v>
@@ -10415,7 +10583,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>492</v>
+        <v>106</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -10424,16 +10592,16 @@
         <v>87</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>461</v>
+        <v>107</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -10444,24 +10612,24 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>497</v>
+        <v>397</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>497</v>
+        <v>317</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>76</v>
@@ -10470,16 +10638,16 @@
         <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>493</v>
+        <v>110</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>498</v>
+        <v>111</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>499</v>
+        <v>112</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>496</v>
+        <v>113</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10517,37 +10685,37 @@
         <v>76</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>497</v>
+        <v>117</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>461</v>
+        <v>101</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -10558,12 +10726,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>500</v>
+        <v>398</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="D76" t="s" s="2">
         <v>76</v>
       </c>
@@ -10581,19 +10751,23 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>457</v>
+        <v>143</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>501</v>
+        <v>319</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>76</v>
       </c>
@@ -10602,7 +10776,7 @@
         <v>76</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>76</v>
+        <v>399</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>76</v>
@@ -10641,7 +10815,7 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>500</v>
+        <v>323</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -10656,10 +10830,10 @@
         <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10670,10 +10844,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>503</v>
+        <v>400</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>503</v>
+        <v>330</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10693,19 +10867,23 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>104</v>
+        <v>331</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>76</v>
       </c>
@@ -10753,7 +10931,7 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>106</v>
+        <v>335</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -10762,16 +10940,16 @@
         <v>87</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>76</v>
+        <v>336</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>107</v>
+        <v>337</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
@@ -10782,42 +10960,44 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>504</v>
+        <v>401</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="D78" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>111</v>
+        <v>403</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>112</v>
+        <v>309</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>113</v>
+        <v>310</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10843,31 +11023,29 @@
         <v>76</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>76</v>
+        <v>404</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>117</v>
+        <v>307</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -10879,16 +11057,16 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>101</v>
+        <v>314</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>76</v>
@@ -10896,46 +11074,42 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>505</v>
+        <v>405</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>505</v>
+        <v>316</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>480</v>
+        <v>76</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>481</v>
+        <v>104</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>76</v>
       </c>
@@ -10983,25 +11157,25 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>483</v>
+        <v>106</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>76</v>
@@ -11012,21 +11186,21 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>506</v>
+        <v>406</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>506</v>
+        <v>317</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>76</v>
@@ -11038,16 +11212,16 @@
         <v>76</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>507</v>
+        <v>111</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>508</v>
+        <v>112</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>416</v>
+        <v>113</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11085,37 +11259,37 @@
         <v>76</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>506</v>
+        <v>117</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>76</v>
@@ -11126,12 +11300,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>509</v>
+        <v>407</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="D81" t="s" s="2">
         <v>76</v>
       </c>
@@ -11140,7 +11316,7 @@
         <v>77</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>76</v>
@@ -11149,21 +11325,23 @@
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>277</v>
+        <v>143</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>510</v>
+        <v>319</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>511</v>
+        <v>320</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>76</v>
       </c>
@@ -11172,7 +11350,7 @@
         <v>76</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>76</v>
+        <v>408</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>76</v>
@@ -11211,25 +11389,25 @@
         <v>76</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>509</v>
+        <v>323</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>282</v>
+        <v>100</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>512</v>
+        <v>324</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>76</v>
@@ -11240,10 +11418,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>513</v>
+        <v>409</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>513</v>
+        <v>330</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11263,21 +11441,23 @@
         <v>76</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>514</v>
+        <v>331</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>515</v>
+        <v>332</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>76</v>
       </c>
@@ -11325,7 +11505,7 @@
         <v>76</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>513</v>
+        <v>335</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -11340,10 +11520,10 @@
         <v>100</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>76</v>
+        <v>336</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>461</v>
+        <v>337</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>76</v>
@@ -11354,12 +11534,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>516</v>
+        <v>410</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="D83" t="s" s="2">
         <v>76</v>
       </c>
@@ -11371,29 +11553,27 @@
         <v>78</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>517</v>
+        <v>228</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>518</v>
+        <v>412</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>519</v>
+        <v>309</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>76</v>
       </c>
@@ -11417,13 +11597,11 @@
         <v>76</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>76</v>
+        <v>413</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>76</v>
@@ -11441,7 +11619,7 @@
         <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>516</v>
+        <v>307</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -11453,23 +11631,3669 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AK83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL83" t="s" s="2">
+      <c r="AK84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="D89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="D90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="D101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="D102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AM83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN83" t="s" s="2">
+      <c r="M103" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O110" s="2"/>
+      <c r="P110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="P111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="O112" s="2"/>
+      <c r="P112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O113" s="2"/>
+      <c r="P113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="O114" s="2"/>
+      <c r="P114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="P115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN115" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN83">
+  <autoFilter ref="A1:AN115">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11479,7 +15303,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI82">
+  <conditionalFormatting sqref="A2:AI114">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/lien-specialty-slice-coding/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/lien-specialty-slice-coding/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T08:25:58+00:00</t>
+    <t>2024-03-19T09:09:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1092,7 +1092,7 @@
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J209-TypeSavoirFaire-ROR/FHIR/JDV-J209-TypeSavoirFaire-ROR"/&gt;
+  &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_R04-TypeSavoirFaire/FHIR/TRE-R04-TypeSavoirFaire"/&gt;
   &lt;code value="S"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
@@ -1122,7 +1122,7 @@
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J209-TypeSavoirFaire-ROR/FHIR/JDV-J209-TypeSavoirFaire-ROR"/&gt;
+  &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_R04-TypeSavoirFaire/FHIR/TRE-R04-TypeSavoirFaire"/&gt;
   &lt;code value="C"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
@@ -1152,7 +1152,7 @@
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J209-TypeSavoirFaire-ROR/FHIR/JDV-J209-TypeSavoirFaire-ROR"/&gt;
+  &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_R04-TypeSavoirFaire/FHIR/TRE-R04-TypeSavoirFaire"/&gt;
   &lt;code value="CEX"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
@@ -1182,7 +1182,7 @@
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J209-TypeSavoirFaire-ROR/FHIR/JDV-J209-TypeSavoirFaire-ROR"/&gt;
+  &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_R04-TypeSavoirFaire/FHIR/TRE-R04-TypeSavoirFaire"/&gt;
   &lt;code value="OP"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
@@ -1212,7 +1212,7 @@
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J209-TypeSavoirFaire-ROR/FHIR/JDV-J209-TypeSavoirFaire-ROR"/&gt;
+  &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_R04-TypeSavoirFaire/FHIR/TRE-R04-TypeSavoirFaire"/&gt;
   &lt;code value="CAPA"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
@@ -1242,7 +1242,7 @@
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J209-TypeSavoirFaire-ROR/FHIR/JDV-J209-TypeSavoirFaire-ROR"/&gt;
+  &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_R04-TypeSavoirFaire/FHIR/TRE-R04-TypeSavoirFaire"/&gt;
   &lt;code value="PAC"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
@@ -1272,7 +1272,7 @@
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J209-TypeSavoirFaire-ROR/FHIR/JDV-J209-TypeSavoirFaire-ROR"/&gt;
+  &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_R04-TypeSavoirFaire/FHIR/TRE-R04-TypeSavoirFaire"/&gt;
   &lt;code value="DNQ"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
@@ -1302,7 +1302,7 @@
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J209-TypeSavoirFaire-ROR/FHIR/JDV-J209-TypeSavoirFaire-ROR"/&gt;
+  &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_R04-TypeSavoirFaire/FHIR/TRE-R04-TypeSavoirFaire"/&gt;
   &lt;code value="DEC"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>

--- a/lien-specialty-slice-coding/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/lien-specialty-slice-coding/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$126</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4192" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4603" uniqueCount="576">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T09:09:18+00:00</t>
+    <t>2024-03-19T15:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1004,12 +1004,27 @@
     <t>./Specialty</t>
   </si>
   <si>
+    <t>PractitionerRole.specialty:specialty</t>
+  </si>
+  <si>
+    <t>specialty</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:specialty.id</t>
+  </si>
+  <si>
     <t>PractitionerRole.specialty.id</t>
   </si>
   <si>
+    <t>PractitionerRole.specialty:specialty.extension</t>
+  </si>
+  <si>
     <t>PractitionerRole.specialty.extension</t>
   </si>
   <si>
+    <t>PractitionerRole.specialty:specialty.coding</t>
+  </si>
+  <si>
     <t>PractitionerRole.specialty.coding</t>
   </si>
   <si>
@@ -1034,61 +1049,13 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>PractitionerRole.specialty.coding:expertiseType</t>
+    <t>PractitionerRole.specialty:specialty.coding:expertiseType</t>
   </si>
   <si>
     <t>expertiseType</t>
   </si>
   <si>
     <t>typeSavoirFaire (SavoirFaire) : Type de savoir-faire (qualifications/autres attributions)</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J209-TypeSavoirFaire-ROR/FHIR/JDV-J209-TypeSavoirFaire-ROR</t>
-  </si>
-  <si>
-    <t>PractitionerRole.specialty.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>PractitionerRole.specialty:specialty</t>
-  </si>
-  <si>
-    <t>specialty</t>
-  </si>
-  <si>
-    <t>specialite (SavoirFaire) : Spécialité ordinale</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J210-SpecialiteOrdinale-ROR/FHIR/JDV-J210-SpecialiteOrdinale-ROR</t>
-  </si>
-  <si>
-    <t>PractitionerRole.specialty:specialty.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.specialty:specialty.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.specialty:specialty.coding:expertiseType</t>
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
@@ -1097,25 +1064,55 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
+    <t>PractitionerRole.specialty:specialty.coding:specialty</t>
+  </si>
+  <si>
+    <t>specialite (SavoirFaire) : Spécialité ordinale</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J210-SpecialiteOrdinale-ROR/FHIR/JDV-J210-SpecialiteOrdinale-ROR</t>
+  </si>
+  <si>
     <t>PractitionerRole.specialty:specialty.text</t>
   </si>
   <si>
+    <t>PractitionerRole.specialty.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>PractitionerRole.specialty:competence</t>
   </si>
   <si>
     <t>competence</t>
   </si>
   <si>
-    <t>competence (SavoirFaire) : Compétence acquise par le professionnel</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J232-Competence-ROR/FHIR/JDV-J232-Competence-ROR</t>
-  </si>
-  <si>
     <t>PractitionerRole.specialty:competence.id</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:competence.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:competence.coding</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:competence.coding:expertiseType</t>
@@ -1127,6 +1124,15 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
+    <t>PractitionerRole.specialty:competence.coding:competence</t>
+  </si>
+  <si>
+    <t>competence (SavoirFaire) : Compétence acquise par le professionnel</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J232-Competence-ROR/FHIR/JDV-J232-Competence-ROR</t>
+  </si>
+  <si>
     <t>PractitionerRole.specialty:competence.text</t>
   </si>
   <si>
@@ -1136,16 +1142,13 @@
     <t>exclusiveCompetence</t>
   </si>
   <si>
-    <t>competenceExclusive (SavoirFaire) : Compétence exclusive</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J211-CompetenceExclusive-ROR/FHIR/JDV-J211-CompetenceExclusive-ROR</t>
-  </si>
-  <si>
     <t>PractitionerRole.specialty:exclusiveCompetence.id</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:exclusiveCompetence.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:exclusiveCompetence.coding</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:exclusiveCompetence.coding:expertiseType</t>
@@ -1157,6 +1160,15 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
+    <t>PractitionerRole.specialty:exclusiveCompetence.coding:exclusiveCompetence</t>
+  </si>
+  <si>
+    <t>competenceExclusive (SavoirFaire) : Compétence exclusive</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J211-CompetenceExclusive-ROR/FHIR/JDV-J211-CompetenceExclusive-ROR</t>
+  </si>
+  <si>
     <t>PractitionerRole.specialty:exclusiveCompetence.text</t>
   </si>
   <si>
@@ -1176,6 +1188,9 @@
   </si>
   <si>
     <t>PractitionerRole.specialty:specificOrientation.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:specificOrientation.coding</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:specificOrientation.coding:expertiseType</t>
@@ -1187,6 +1202,9 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
+    <t>PractitionerRole.specialty:specificOrientation.coding:specificOrientation</t>
+  </si>
+  <si>
     <t>PractitionerRole.specialty:specificOrientation.text</t>
   </si>
   <si>
@@ -1206,6 +1224,9 @@
   </si>
   <si>
     <t>PractitionerRole.specialty:expertiseCapacity.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:expertiseCapacity.coding</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:expertiseCapacity.coding:expertiseType</t>
@@ -1217,6 +1238,9 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
+    <t>PractitionerRole.specialty:expertiseCapacity.coding:expertiseCapacity</t>
+  </si>
+  <si>
     <t>PractitionerRole.specialty:expertiseCapacity.text</t>
   </si>
   <si>
@@ -1226,16 +1250,13 @@
     <t>qualificationPAC</t>
   </si>
   <si>
-    <t>qualificationPAC (SavoirFaire) : Qualification de praticien adjoint contractuel</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J214-QualificationPAC-ROR/FHIR/JDV-J214-QualificationPAC-ROR</t>
-  </si>
-  <si>
     <t>PractitionerRole.specialty:qualificationPAC.id</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:qualificationPAC.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:qualificationPAC.coding</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:qualificationPAC.coding:expertiseType</t>
@@ -1247,6 +1268,15 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
+    <t>PractitionerRole.specialty:qualificationPAC.coding:qualificationPAC</t>
+  </si>
+  <si>
+    <t>qualificationPAC (SavoirFaire) : Qualification de praticien adjoint contractuel</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J214-QualificationPAC-ROR/FHIR/JDV-J214-QualificationPAC-ROR</t>
+  </si>
+  <si>
     <t>PractitionerRole.specialty:qualificationPAC.text</t>
   </si>
   <si>
@@ -1256,16 +1286,13 @@
     <t>nonQualifyingDESC</t>
   </si>
   <si>
-    <t>DESCNonQualifiant (SavoirFaire) : Diplôme d'études spécialisées complémentaires (DESC)</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J215-DESCnonQualifiant-ROR/FHIR/JDV-J215-DESCnonQualifiant-ROR</t>
-  </si>
-  <si>
     <t>PractitionerRole.specialty:nonQualifyingDESC.id</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:nonQualifyingDESC.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:nonQualifyingDESC.coding</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:nonQualifyingDESC.coding:expertiseType</t>
@@ -1277,6 +1304,15 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
+    <t>PractitionerRole.specialty:nonQualifyingDESC.coding:nonQualifyingDESC</t>
+  </si>
+  <si>
+    <t>DESCNonQualifiant (SavoirFaire) : Diplôme d'études spécialisées complémentaires (DESC)</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J215-DESCnonQualifiant-ROR/FHIR/JDV-J215-DESCnonQualifiant-ROR</t>
+  </si>
+  <si>
     <t>PractitionerRole.specialty:nonQualifyingDESC.text</t>
   </si>
   <si>
@@ -1286,16 +1322,13 @@
     <t>supplementaryExerciseRight</t>
   </si>
   <si>
-    <t>droitExerciceComplémentaire (SavoirFaire) : Droit d'exercice complémentaire du professionnel</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J216-DroitExerciceCompl-ROR/FHIR/JDV-J216-DroitExerciceCompl-ROR</t>
-  </si>
-  <si>
     <t>PractitionerRole.specialty:supplementaryExerciseRight.id</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:supplementaryExerciseRight.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:supplementaryExerciseRight.coding</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:supplementaryExerciseRight.coding:expertiseType</t>
@@ -1305,6 +1338,15 @@
   &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_R04-TypeSavoirFaire/FHIR/TRE-R04-TypeSavoirFaire"/&gt;
   &lt;code value="DEC"/&gt;
 &lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty:supplementaryExerciseRight.coding:supplementaryExerciseRight</t>
+  </si>
+  <si>
+    <t>droitExerciceComplémentaire (SavoirFaire) : Droit d'exercice complémentaire du professionnel</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J216-DroitExerciceCompl-ROR/FHIR/JDV-J216-DroitExerciceCompl-ROR</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:supplementaryExerciseRight.text</t>
@@ -2100,7 +2142,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN115"/>
+  <dimension ref="A1:AN126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2109,7 +2151,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="84.24609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="85.203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="46.02734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -6373,9 +6415,11 @@
         <v>316</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>76</v>
       </c>
@@ -6387,24 +6431,26 @@
         <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>103</v>
+        <v>228</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>104</v>
+        <v>308</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -6429,13 +6475,13 @@
         <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>311</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>76</v>
@@ -6453,28 +6499,28 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>106</v>
+        <v>307</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>107</v>
+        <v>314</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>76</v>
@@ -6482,21 +6528,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -6508,17 +6554,15 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -6555,37 +6599,37 @@
         <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -6596,14 +6640,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6619,23 +6663,21 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>111</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
+        <v>112</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6673,7 +6715,9 @@
       <c r="AB40" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AC40" s="2"/>
+      <c r="AC40" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="AD40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6681,7 +6725,7 @@
         <v>116</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>323</v>
+        <v>117</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6693,13 +6737,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>101</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6710,14 +6754,12 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6726,10 +6768,10 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>76</v>
@@ -6741,16 +6783,16 @@
         <v>143</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6775,29 +6817,29 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Y41" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z41" t="s" s="2">
-        <v>329</v>
+        <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6812,10 +6854,10 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6826,12 +6868,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6843,7 +6887,7 @@
         <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>76</v>
@@ -6852,19 +6896,19 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -6874,7 +6918,7 @@
         <v>76</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>76</v>
+        <v>334</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>76</v>
@@ -6913,13 +6957,13 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>99</v>
@@ -6928,10 +6972,10 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6942,13 +6986,13 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>76</v>
@@ -6970,18 +7014,20 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
       </c>
@@ -7009,7 +7055,7 @@
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>76</v>
@@ -7027,7 +7073,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -7042,13 +7088,13 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>76</v>
@@ -7056,10 +7102,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7079,19 +7125,23 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>104</v>
+        <v>340</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
       </c>
@@ -7139,7 +7189,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>106</v>
+        <v>344</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7148,16 +7198,16 @@
         <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>76</v>
+        <v>345</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>107</v>
+        <v>346</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -7168,42 +7218,44 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="D45" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>111</v>
+        <v>308</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>112</v>
+        <v>309</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>113</v>
+        <v>310</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7229,31 +7281,31 @@
         <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>76</v>
+        <v>311</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>117</v>
+        <v>307</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7265,16 +7317,16 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>101</v>
+        <v>314</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>76</v>
@@ -7282,14 +7334,12 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
         <v>76</v>
       </c>
@@ -7298,7 +7348,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -7307,23 +7357,19 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>319</v>
+        <v>104</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
       </c>
@@ -7332,7 +7378,7 @@
         <v>76</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>345</v>
+        <v>76</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>76</v>
@@ -7371,25 +7417,25 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>323</v>
+        <v>106</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>325</v>
+        <v>107</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -7400,21 +7446,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -7423,23 +7469,21 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>331</v>
+        <v>111</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>332</v>
+        <v>112</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>76</v>
       </c>
@@ -7475,37 +7519,37 @@
         <v>76</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>335</v>
+        <v>117</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>337</v>
+        <v>101</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -7516,14 +7560,12 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>76</v>
       </c>
@@ -7532,10 +7574,10 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>76</v>
@@ -7544,18 +7586,20 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>76</v>
       </c>
@@ -7579,29 +7623,29 @@
         <v>76</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Y48" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z48" t="s" s="2">
-        <v>350</v>
+        <v>76</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7616,13 +7660,13 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>76</v>
@@ -7630,12 +7674,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>76</v>
       </c>
@@ -7647,25 +7693,29 @@
         <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>104</v>
+        <v>333</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>76</v>
       </c>
@@ -7674,7 +7724,7 @@
         <v>76</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>76</v>
@@ -7713,25 +7763,25 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>106</v>
+        <v>328</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>107</v>
+        <v>330</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7742,44 +7792,48 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="D50" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>111</v>
+        <v>355</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>112</v>
+        <v>325</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7803,31 +7857,29 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>117</v>
+        <v>328</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7839,13 +7891,13 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>101</v>
+        <v>330</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7856,14 +7908,12 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7872,7 +7922,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7884,19 +7934,19 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7906,7 +7956,7 @@
         <v>76</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>354</v>
+        <v>76</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>76</v>
@@ -7945,13 +7995,13 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>99</v>
@@ -7960,10 +8010,10 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7974,12 +8024,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="D52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7991,7 +8043,7 @@
         <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>76</v>
@@ -8000,20 +8052,18 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>103</v>
+        <v>228</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
       </c>
@@ -8037,13 +8087,13 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>76</v>
+        <v>311</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
@@ -8061,13 +8111,13 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>99</v>
@@ -8076,13 +8126,13 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>76</v>
@@ -8090,14 +8140,12 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>76</v>
       </c>
@@ -8109,26 +8157,24 @@
         <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>228</v>
+        <v>103</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>358</v>
+        <v>104</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
@@ -8153,11 +8199,13 @@
         <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Y53" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z53" t="s" s="2">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>76</v>
@@ -8175,28 +8223,28 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>307</v>
+        <v>106</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>314</v>
+        <v>107</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>76</v>
@@ -8204,21 +8252,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
@@ -8230,15 +8278,17 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -8275,37 +8325,37 @@
         <v>76</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -8316,14 +8366,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8339,21 +8389,23 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>111</v>
+        <v>324</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>112</v>
+        <v>325</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>76</v>
       </c>
@@ -8391,9 +8443,7 @@
       <c r="AB55" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AC55" t="s" s="2">
-        <v>115</v>
-      </c>
+      <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>76</v>
       </c>
@@ -8401,7 +8451,7 @@
         <v>116</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>117</v>
+        <v>328</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8413,13 +8463,13 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>101</v>
+        <v>330</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -8430,13 +8480,13 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>76</v>
@@ -8446,10 +8496,10 @@
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>76</v>
@@ -8461,16 +8511,16 @@
         <v>143</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -8480,7 +8530,7 @@
         <v>76</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>76</v>
@@ -8519,7 +8569,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8534,10 +8584,10 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -8548,12 +8598,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>76</v>
       </c>
@@ -8565,7 +8617,7 @@
         <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>76</v>
@@ -8574,19 +8626,19 @@
         <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -8611,13 +8663,11 @@
         <v>76</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>76</v>
@@ -8635,13 +8685,13 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>99</v>
@@ -8650,10 +8700,10 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8664,14 +8714,12 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>76</v>
       </c>
@@ -8683,7 +8731,7 @@
         <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>76</v>
@@ -8692,18 +8740,20 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>228</v>
+        <v>103</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>76</v>
       </c>
@@ -8727,11 +8777,13 @@
         <v>76</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Y58" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z58" t="s" s="2">
-        <v>368</v>
+        <v>76</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>76</v>
@@ -8749,13 +8801,13 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>99</v>
@@ -8764,13 +8816,13 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>76</v>
@@ -8781,9 +8833,11 @@
         <v>369</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8795,24 +8849,26 @@
         <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>103</v>
+        <v>228</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>104</v>
+        <v>371</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>76</v>
@@ -8837,13 +8893,11 @@
         <v>76</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>76</v>
+        <v>372</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>76</v>
@@ -8861,28 +8915,28 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>106</v>
+        <v>307</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>107</v>
+        <v>314</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>76</v>
@@ -8890,21 +8944,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -8916,17 +8970,15 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>76</v>
@@ -8963,37 +9015,37 @@
         <v>76</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -9004,16 +9056,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9029,23 +9079,21 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>319</v>
+        <v>111</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>320</v>
+        <v>112</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>76</v>
       </c>
@@ -9054,7 +9102,7 @@
         <v>76</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>372</v>
+        <v>76</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>76</v>
@@ -9081,19 +9129,19 @@
         <v>76</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>323</v>
+        <v>117</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9105,13 +9153,13 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>325</v>
+        <v>101</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
@@ -9122,10 +9170,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9136,7 +9184,7 @@
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -9148,19 +9196,19 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>76</v>
@@ -9197,25 +9245,23 @@
         <v>76</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>99</v>
@@ -9224,10 +9270,10 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -9238,13 +9284,13 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>76</v>
@@ -9266,18 +9312,20 @@
         <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>76</v>
       </c>
@@ -9286,7 +9334,7 @@
         <v>76</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>76</v>
+        <v>377</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>76</v>
@@ -9301,11 +9349,13 @@
         <v>76</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Y63" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z63" t="s" s="2">
-        <v>377</v>
+        <v>76</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>76</v>
@@ -9323,7 +9373,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9338,13 +9388,13 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>76</v>
@@ -9355,9 +9405,11 @@
         <v>378</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>76</v>
       </c>
@@ -9369,25 +9421,29 @@
         <v>87</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>104</v>
+        <v>324</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>76</v>
       </c>
@@ -9435,25 +9491,25 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>106</v>
+        <v>328</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>107</v>
+        <v>330</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
@@ -9467,18 +9523,18 @@
         <v>379</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
@@ -9487,21 +9543,23 @@
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>111</v>
+        <v>340</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>112</v>
+        <v>341</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>76</v>
       </c>
@@ -9537,37 +9595,37 @@
         <v>76</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>117</v>
+        <v>344</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>76</v>
+        <v>345</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>101</v>
+        <v>346</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
@@ -9581,10 +9639,10 @@
         <v>380</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>76</v>
@@ -9594,10 +9652,10 @@
         <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>76</v>
@@ -9606,20 +9664,18 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>143</v>
+        <v>228</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>319</v>
+        <v>382</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9628,7 +9684,7 @@
         <v>76</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>381</v>
+        <v>76</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>76</v>
@@ -9643,13 +9699,11 @@
         <v>76</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>76</v>
+        <v>383</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>76</v>
@@ -9667,7 +9721,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9682,13 +9736,13 @@
         <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>76</v>
@@ -9696,10 +9750,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9719,23 +9773,19 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>331</v>
+        <v>104</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>76</v>
       </c>
@@ -9783,7 +9833,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>335</v>
+        <v>106</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9792,16 +9842,16 @@
         <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>337</v>
+        <v>107</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
@@ -9812,44 +9862,42 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>385</v>
+        <v>111</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>309</v>
+        <v>112</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>310</v>
+        <v>113</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9875,29 +9923,31 @@
         <v>76</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Y68" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z68" t="s" s="2">
-        <v>386</v>
+        <v>76</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>307</v>
+        <v>117</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9909,16 +9959,16 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>314</v>
+        <v>101</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>76</v>
@@ -9926,10 +9976,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9940,7 +9990,7 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
@@ -9949,19 +9999,23 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>104</v>
+        <v>324</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>76</v>
       </c>
@@ -9997,37 +10051,35 @@
         <v>76</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AC69" s="2"/>
       <c r="AD69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>106</v>
+        <v>328</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>107</v>
+        <v>330</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>76</v>
@@ -10038,44 +10090,48 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="D70" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>111</v>
+        <v>333</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>112</v>
+        <v>325</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>76</v>
       </c>
@@ -10084,7 +10140,7 @@
         <v>76</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>76</v>
+        <v>388</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>76</v>
@@ -10111,19 +10167,19 @@
         <v>76</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>117</v>
+        <v>328</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10135,13 +10191,13 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>101</v>
+        <v>330</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>76</v>
@@ -10155,10 +10211,10 @@
         <v>389</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>76</v>
@@ -10168,10 +10224,10 @@
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>76</v>
@@ -10183,16 +10239,16 @@
         <v>143</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>76</v>
@@ -10202,7 +10258,7 @@
         <v>76</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>390</v>
+        <v>76</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>76</v>
@@ -10241,7 +10297,7 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10256,10 +10312,10 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -10270,10 +10326,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10299,16 +10355,16 @@
         <v>103</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>76</v>
@@ -10357,7 +10413,7 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10372,10 +10428,10 @@
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -10386,13 +10442,13 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>307</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>76</v>
@@ -10417,7 +10473,7 @@
         <v>228</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>394</v>
+        <v>308</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>309</v>
@@ -10449,11 +10505,13 @@
         <v>76</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Y73" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="Z73" t="s" s="2">
-        <v>395</v>
+        <v>312</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>76</v>
@@ -10500,10 +10558,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10612,10 +10670,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10726,14 +10784,12 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
         <v>76</v>
       </c>
@@ -10757,16 +10813,16 @@
         <v>143</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>76</v>
@@ -10776,7 +10832,7 @@
         <v>76</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>76</v>
@@ -10803,19 +10859,17 @@
         <v>76</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AC76" s="2"/>
       <c r="AD76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -10830,10 +10884,10 @@
         <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10844,12 +10898,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="D77" t="s" s="2">
         <v>76</v>
       </c>
@@ -10861,7 +10917,7 @@
         <v>87</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>76</v>
@@ -10870,19 +10926,19 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>76</v>
@@ -10892,7 +10948,7 @@
         <v>76</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>76</v>
+        <v>397</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>76</v>
@@ -10931,13 +10987,13 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>99</v>
@@ -10946,10 +11002,10 @@
         <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
@@ -10960,13 +11016,13 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>76</v>
@@ -10988,18 +11044,20 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>76</v>
       </c>
@@ -11027,7 +11085,7 @@
       </c>
       <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>76</v>
@@ -11045,7 +11103,7 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11060,13 +11118,13 @@
         <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>76</v>
@@ -11074,10 +11132,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11097,19 +11155,23 @@
         <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>104</v>
+        <v>340</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>76</v>
       </c>
@@ -11157,7 +11219,7 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>106</v>
+        <v>344</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -11166,16 +11228,16 @@
         <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>76</v>
+        <v>345</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>107</v>
+        <v>346</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>76</v>
@@ -11186,42 +11248,44 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="D80" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>111</v>
+        <v>308</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>112</v>
+        <v>309</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>113</v>
+        <v>310</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11247,31 +11311,31 @@
         <v>76</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>76</v>
+        <v>311</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>117</v>
+        <v>307</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -11283,16 +11347,16 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>101</v>
+        <v>314</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>76</v>
@@ -11300,14 +11364,12 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
         <v>76</v>
       </c>
@@ -11316,7 +11378,7 @@
         <v>77</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>76</v>
@@ -11325,23 +11387,19 @@
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>319</v>
+        <v>104</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>76</v>
       </c>
@@ -11350,7 +11408,7 @@
         <v>76</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>408</v>
+        <v>76</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>76</v>
@@ -11389,25 +11447,25 @@
         <v>76</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>323</v>
+        <v>106</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>325</v>
+        <v>107</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>76</v>
@@ -11418,21 +11476,21 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>76</v>
@@ -11441,23 +11499,21 @@
         <v>76</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>331</v>
+        <v>111</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>332</v>
+        <v>112</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>76</v>
       </c>
@@ -11493,37 +11549,37 @@
         <v>76</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>335</v>
+        <v>117</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>337</v>
+        <v>101</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>76</v>
@@ -11534,14 +11590,12 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
         <v>76</v>
       </c>
@@ -11553,7 +11607,7 @@
         <v>78</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>76</v>
@@ -11562,18 +11616,20 @@
         <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>412</v>
+        <v>324</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>76</v>
       </c>
@@ -11597,29 +11653,29 @@
         <v>76</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Y83" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z83" t="s" s="2">
-        <v>413</v>
+        <v>76</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AC83" s="2"/>
       <c r="AD83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -11634,13 +11690,13 @@
         <v>100</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>76</v>
@@ -11648,12 +11704,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="D84" t="s" s="2">
         <v>76</v>
       </c>
@@ -11662,10 +11720,10 @@
         <v>77</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>76</v>
@@ -11674,18 +11732,20 @@
         <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>415</v>
+        <v>143</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>416</v>
+        <v>333</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>417</v>
+        <v>325</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>76</v>
       </c>
@@ -11694,7 +11754,7 @@
         <v>76</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>76</v>
+        <v>408</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>76</v>
@@ -11733,7 +11793,7 @@
         <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>414</v>
+        <v>328</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -11745,35 +11805,37 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>292</v>
+        <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>418</v>
+        <v>330</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>419</v>
+        <v>76</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>420</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C85" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="D85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>87</v>
@@ -11785,21 +11847,23 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>422</v>
+        <v>143</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>424</v>
+        <v>325</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O85" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>76</v>
       </c>
@@ -11823,13 +11887,11 @@
         <v>76</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>76</v>
+        <v>411</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>76</v>
@@ -11847,7 +11909,7 @@
         <v>76</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>421</v>
+        <v>328</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -11859,13 +11921,13 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>292</v>
+        <v>100</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>425</v>
+        <v>329</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>426</v>
+        <v>330</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>76</v>
@@ -11876,10 +11938,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>427</v>
+        <v>339</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11893,7 +11955,7 @@
         <v>87</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>76</v>
@@ -11902,17 +11964,19 @@
         <v>88</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>428</v>
+        <v>103</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>429</v>
+        <v>340</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O86" t="s" s="2">
-        <v>431</v>
+        <v>343</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>76</v>
@@ -11961,28 +12025,28 @@
         <v>76</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>427</v>
+        <v>344</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>432</v>
+        <v>100</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>433</v>
+        <v>345</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>434</v>
+        <v>346</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>435</v>
+        <v>76</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>76</v>
@@ -11990,12 +12054,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="C87" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="D87" t="s" s="2">
         <v>76</v>
       </c>
@@ -12007,24 +12073,26 @@
         <v>87</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>103</v>
+        <v>228</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>104</v>
+        <v>308</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>76</v>
@@ -12049,13 +12117,13 @@
         <v>76</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>76</v>
+        <v>311</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>76</v>
@@ -12073,28 +12141,28 @@
         <v>76</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>106</v>
+        <v>307</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>107</v>
+        <v>314</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>76</v>
@@ -12102,10 +12170,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>437</v>
+        <v>319</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12113,10 +12181,10 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>76</v>
@@ -12128,13 +12196,13 @@
         <v>76</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>198</v>
+        <v>105</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12173,37 +12241,37 @@
         <v>76</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>76</v>
@@ -12214,26 +12282,24 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>76</v>
@@ -12242,15 +12308,17 @@
         <v>76</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>440</v>
+        <v>110</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>441</v>
+        <v>111</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>76</v>
@@ -12287,16 +12355,16 @@
         <v>76</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>117</v>
@@ -12317,7 +12385,7 @@
         <v>76</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>76</v>
@@ -12328,14 +12396,12 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
         <v>76</v>
       </c>
@@ -12344,28 +12410,32 @@
         <v>77</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J90" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K90" t="s" s="2">
-        <v>445</v>
+        <v>143</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>446</v>
+        <v>324</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>76</v>
       </c>
@@ -12401,19 +12471,17 @@
         <v>76</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AC90" s="2"/>
       <c r="AD90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>117</v>
+        <v>328</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -12425,13 +12493,13 @@
         <v>99</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>76</v>
+        <v>330</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>76</v>
@@ -12442,20 +12510,20 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>437</v>
+        <v>323</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>449</v>
+        <v>332</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>87</v>
@@ -12467,19 +12535,23 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>450</v>
+        <v>143</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>451</v>
+        <v>333</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>76</v>
       </c>
@@ -12488,7 +12560,7 @@
         <v>76</v>
       </c>
       <c r="S91" t="s" s="2">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="T91" t="s" s="2">
         <v>76</v>
@@ -12527,7 +12599,7 @@
         <v>76</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>117</v>
+        <v>328</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -12539,13 +12611,13 @@
         <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>76</v>
+        <v>330</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>76</v>
@@ -12556,12 +12628,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C92" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="D92" t="s" s="2">
         <v>76</v>
       </c>
@@ -12573,7 +12647,7 @@
         <v>87</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>76</v>
@@ -12582,18 +12656,20 @@
         <v>88</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>455</v>
+        <v>325</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O92" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>76</v>
       </c>
@@ -12619,11 +12695,9 @@
       <c r="X92" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y92" t="s" s="2">
-        <v>457</v>
-      </c>
+      <c r="Y92" s="2"/>
       <c r="Z92" t="s" s="2">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>76</v>
@@ -12641,28 +12715,28 @@
         <v>76</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>459</v>
+        <v>328</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>460</v>
+        <v>99</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>461</v>
+        <v>329</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>462</v>
+        <v>330</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>463</v>
+        <v>76</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>76</v>
@@ -12670,10 +12744,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>464</v>
+        <v>423</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>464</v>
+        <v>339</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12681,13 +12755,13 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>76</v>
@@ -12699,16 +12773,16 @@
         <v>103</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>465</v>
+        <v>340</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>466</v>
+        <v>341</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>467</v>
+        <v>342</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>468</v>
+        <v>343</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>76</v>
@@ -12757,7 +12831,7 @@
         <v>76</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>469</v>
+        <v>344</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
@@ -12772,13 +12846,13 @@
         <v>100</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>470</v>
+        <v>345</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>471</v>
+        <v>346</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>76</v>
@@ -12786,12 +12860,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>473</v>
+        <v>424</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="D94" t="s" s="2">
         <v>76</v>
       </c>
@@ -12800,32 +12876,30 @@
         <v>77</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J94" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>474</v>
+        <v>426</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>475</v>
+        <v>309</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>76</v>
       </c>
@@ -12851,11 +12925,9 @@
       <c r="X94" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y94" t="s" s="2">
-        <v>478</v>
-      </c>
+      <c r="Y94" s="2"/>
       <c r="Z94" t="s" s="2">
-        <v>479</v>
+        <v>427</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>76</v>
@@ -12873,13 +12945,13 @@
         <v>76</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>480</v>
+        <v>307</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>99</v>
@@ -12888,13 +12960,13 @@
         <v>100</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>481</v>
+        <v>313</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>482</v>
+        <v>314</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>483</v>
+        <v>315</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>76</v>
@@ -12902,10 +12974,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>484</v>
+        <v>428</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>484</v>
+        <v>428</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12916,7 +12988,7 @@
         <v>77</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>76</v>
@@ -12928,16 +13000,16 @@
         <v>88</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>485</v>
+        <v>429</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>486</v>
+        <v>430</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>487</v>
+        <v>431</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>488</v>
+        <v>291</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -12987,39 +13059,39 @@
         <v>76</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>489</v>
+        <v>428</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>100</v>
+        <v>292</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>107</v>
+        <v>432</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>76</v>
+        <v>433</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>76</v>
+        <v>434</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>490</v>
+        <v>435</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>490</v>
+        <v>435</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13027,31 +13099,31 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>277</v>
+        <v>436</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>491</v>
+        <v>437</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13101,28 +13173,28 @@
         <v>76</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>493</v>
+        <v>435</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>101</v>
+        <v>439</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>494</v>
+        <v>440</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>495</v>
+        <v>76</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>76</v>
@@ -13130,10 +13202,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>496</v>
+        <v>441</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>496</v>
+        <v>441</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13153,21 +13225,21 @@
         <v>76</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>497</v>
+        <v>442</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>498</v>
+        <v>443</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>76</v>
       </c>
@@ -13215,7 +13287,7 @@
         <v>76</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>496</v>
+        <v>441</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
@@ -13227,16 +13299,16 @@
         <v>99</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>100</v>
+        <v>446</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>76</v>
+        <v>447</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>501</v>
+        <v>448</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>76</v>
+        <v>449</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>76</v>
@@ -13244,10 +13316,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>502</v>
+        <v>450</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>502</v>
+        <v>450</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13356,18 +13428,18 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>503</v>
+        <v>451</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>503</v>
+        <v>451</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>78</v>
@@ -13385,14 +13457,12 @@
         <v>110</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>76</v>
@@ -13459,7 +13529,7 @@
         <v>76</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>76</v>
@@ -13470,20 +13540,20 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>504</v>
+        <v>452</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>503</v>
+        <v>451</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>505</v>
+        <v>453</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>87</v>
@@ -13498,13 +13568,13 @@
         <v>76</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>506</v>
+        <v>454</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>507</v>
+        <v>455</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>508</v>
+        <v>456</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13584,13 +13654,13 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>509</v>
+        <v>457</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>503</v>
+        <v>451</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>510</v>
+        <v>458</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>76</v>
@@ -13612,13 +13682,13 @@
         <v>76</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>511</v>
+        <v>459</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>512</v>
+        <v>460</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>513</v>
+        <v>461</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13698,20 +13768,20 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>514</v>
+        <v>462</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>503</v>
+        <v>451</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>515</v>
+        <v>463</v>
       </c>
       <c r="D102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>87</v>
@@ -13726,13 +13796,13 @@
         <v>76</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>516</v>
+        <v>464</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>517</v>
+        <v>465</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>518</v>
+        <v>466</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13812,46 +13882,44 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>519</v>
+        <v>467</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>519</v>
+        <v>467</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>520</v>
+        <v>76</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>521</v>
+        <v>468</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>522</v>
+        <v>469</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>76</v>
       </c>
@@ -13875,13 +13943,13 @@
         <v>76</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>76</v>
+        <v>471</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>76</v>
@@ -13899,28 +13967,28 @@
         <v>76</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>523</v>
+        <v>473</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>99</v>
+        <v>474</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>76</v>
+        <v>475</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>101</v>
+        <v>476</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>76</v>
+        <v>477</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>76</v>
@@ -13928,10 +13996,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13939,33 +14007,35 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>526</v>
+        <v>480</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O104" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>76</v>
       </c>
@@ -13989,13 +14059,13 @@
         <v>76</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>527</v>
+        <v>76</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>528</v>
+        <v>76</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>76</v>
@@ -14013,13 +14083,13 @@
         <v>76</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>524</v>
+        <v>483</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>99</v>
@@ -14028,13 +14098,13 @@
         <v>100</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>76</v>
+        <v>484</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>76</v>
+        <v>486</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>76</v>
@@ -14042,10 +14112,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>529</v>
+        <v>487</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>529</v>
+        <v>487</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14062,22 +14132,26 @@
         <v>76</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>267</v>
+        <v>172</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>530</v>
+        <v>488</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>76</v>
       </c>
@@ -14101,13 +14175,13 @@
         <v>76</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>76</v>
+        <v>492</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>76</v>
+        <v>493</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>76</v>
@@ -14125,7 +14199,7 @@
         <v>76</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>529</v>
+        <v>494</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
@@ -14140,13 +14214,13 @@
         <v>100</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>76</v>
+        <v>495</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>76</v>
+        <v>497</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>76</v>
@@ -14154,10 +14228,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14171,25 +14245,25 @@
         <v>87</v>
       </c>
       <c r="H106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J106" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K106" t="s" s="2">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>534</v>
+        <v>500</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>535</v>
+        <v>501</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>536</v>
+        <v>502</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14239,7 +14313,7 @@
         <v>76</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
@@ -14254,10 +14328,10 @@
         <v>100</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>501</v>
+        <v>107</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>76</v>
@@ -14268,10 +14342,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>537</v>
+        <v>504</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>537</v>
+        <v>504</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14285,25 +14359,25 @@
         <v>87</v>
       </c>
       <c r="H107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J107" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K107" t="s" s="2">
-        <v>533</v>
+        <v>277</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>538</v>
+        <v>505</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>539</v>
+        <v>506</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>536</v>
+        <v>280</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14353,7 +14427,7 @@
         <v>76</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
@@ -14365,16 +14439,16 @@
         <v>99</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>100</v>
+        <v>282</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>76</v>
+        <v>509</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>76</v>
@@ -14382,10 +14456,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14396,10 +14470,10 @@
         <v>77</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>76</v>
@@ -14408,15 +14482,17 @@
         <v>76</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>541</v>
+        <v>512</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>76</v>
@@ -14465,7 +14541,7 @@
         <v>76</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
@@ -14483,7 +14559,7 @@
         <v>76</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>76</v>
@@ -14494,10 +14570,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>543</v>
+        <v>516</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>543</v>
+        <v>516</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14606,10 +14682,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14720,33 +14796,35 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="C111" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="D111" t="s" s="2">
-        <v>520</v>
+        <v>76</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>110</v>
+        <v>520</v>
       </c>
       <c r="L111" t="s" s="2">
         <v>521</v>
@@ -14754,12 +14832,8 @@
       <c r="M111" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="N111" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>255</v>
-      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>76</v>
       </c>
@@ -14807,7 +14881,7 @@
         <v>76</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>523</v>
+        <v>117</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>77</v>
@@ -14825,7 +14899,7 @@
         <v>76</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>76</v>
@@ -14836,24 +14910,26 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="C112" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="D112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>76</v>
@@ -14862,17 +14938,15 @@
         <v>76</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>103</v>
+        <v>525</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="N112" s="2"/>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>76</v>
@@ -14921,25 +14995,25 @@
         <v>76</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>546</v>
+        <v>117</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>76</v>
@@ -14950,12 +15024,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="C113" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="D113" t="s" s="2">
         <v>76</v>
       </c>
@@ -14967,7 +15043,7 @@
         <v>87</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>76</v>
@@ -14976,17 +15052,15 @@
         <v>76</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>277</v>
+        <v>530</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="N113" s="2"/>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>76</v>
@@ -15035,25 +15109,25 @@
         <v>76</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>549</v>
+        <v>117</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>282</v>
+        <v>118</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>552</v>
+        <v>76</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>501</v>
+        <v>76</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>76</v>
@@ -15064,44 +15138,46 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>76</v>
+        <v>534</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O114" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P114" t="s" s="2">
         <v>76</v>
       </c>
@@ -15149,25 +15225,25 @@
         <v>76</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>501</v>
+        <v>101</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>76</v>
@@ -15178,10 +15254,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15204,20 +15280,18 @@
         <v>76</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>557</v>
+        <v>172</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>560</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>76</v>
       </c>
@@ -15241,13 +15315,13 @@
         <v>76</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>76</v>
+        <v>541</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>76</v>
+        <v>542</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>76</v>
@@ -15265,7 +15339,7 @@
         <v>76</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>77</v>
@@ -15277,23 +15351,1275 @@
         <v>99</v>
       </c>
       <c r="AJ115" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="O117" s="2"/>
+      <c r="P117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="O118" s="2"/>
+      <c r="P118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" hidden="true">
+      <c r="A119" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="120" hidden="true">
+      <c r="A120" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q120" s="2"/>
+      <c r="R120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="121" hidden="true">
+      <c r="A121" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O121" s="2"/>
+      <c r="P121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q121" s="2"/>
+      <c r="R121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="122" hidden="true">
+      <c r="A122" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="P122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q122" s="2"/>
+      <c r="R122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="123" hidden="true">
+      <c r="A123" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="O123" s="2"/>
+      <c r="P123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q123" s="2"/>
+      <c r="R123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="124" hidden="true">
+      <c r="A124" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O124" s="2"/>
+      <c r="P124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q124" s="2"/>
+      <c r="R124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="125" hidden="true">
+      <c r="A125" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="O125" s="2"/>
+      <c r="P125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q125" s="2"/>
+      <c r="R125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="126" hidden="true">
+      <c r="A126" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="P126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q126" s="2"/>
+      <c r="R126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AK115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN115" t="s" s="2">
+      <c r="AK126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN126" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN115">
+  <autoFilter ref="A1:AN126">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15303,7 +16629,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI114">
+  <conditionalFormatting sqref="A2:AI125">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/lien-specialty-slice-coding/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/lien-specialty-slice-coding/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T15:15:55+00:00</t>
+    <t>2024-03-19T16:12:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>78</v>
@@ -6881,7 +6881,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>87</v>
@@ -6999,7 +6999,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>87</v>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -7687,7 +7687,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>87</v>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>87</v>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>78</v>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>87</v>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>87</v>
@@ -9181,7 +9181,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>78</v>
@@ -9297,7 +9297,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>87</v>
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>87</v>
@@ -9987,7 +9987,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>78</v>
@@ -10103,7 +10103,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>87</v>
@@ -10221,7 +10221,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>87</v>
@@ -10795,7 +10795,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>78</v>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>87</v>
@@ -11029,7 +11029,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>87</v>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>78</v>
@@ -11717,7 +11717,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>87</v>
@@ -11835,7 +11835,7 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>87</v>
@@ -12407,7 +12407,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>78</v>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>87</v>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>87</v>
